--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="5730" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14090" windowHeight="5430" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <oleSize ref="A1:D17"/>
 </workbook>
 </file>
 
@@ -815,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,11 +1098,6 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF202124"/>
-      <name val="Google Sans"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
     </font>
@@ -1163,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1245,7 +1240,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,7 +1716,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1755,12 +1749,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3706,7 +3700,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3828,7 +3822,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3876,7 +3870,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4058,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4088,8 +4082,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>237</v>
+      <c r="B3" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4143,7 +4137,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4172,8 +4166,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>234</v>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4193,9 +4187,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4203,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>

--- a/TestData/ComplianceSheet.xlsx
+++ b/TestData/ComplianceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14090" windowHeight="5430" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14090" windowHeight="5430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,12 +40,12 @@
     <sheet name="Sheet31" sheetId="33" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D17"/>
+  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="241">
   <si>
     <t>URL</t>
   </si>
@@ -771,9 +771,6 @@
     <t>cfo@bitaconsulting.co.in</t>
   </si>
   <si>
-    <t>auditor@regtrack.com</t>
-  </si>
-  <si>
     <t>https://demo.teamleaseregtech.com/</t>
   </si>
   <si>
@@ -796,12 +793,6 @@
     <t>deepali23@tlregtech.in</t>
   </si>
   <si>
-    <t>admin#123</t>
-  </si>
-  <si>
-    <t>snehal.patil@tlregtech.in</t>
-  </si>
-  <si>
     <t>deepalidev1973@gmail.com</t>
   </si>
   <si>
@@ -809,13 +800,28 @@
   </si>
   <si>
     <t>shital.bhoyar@tlregtech.in</t>
+  </si>
+  <si>
+    <t>auditor1@regtrack.com</t>
+  </si>
+  <si>
+    <t>Bl!zz@rd2Cl1mb^</t>
+  </si>
+  <si>
+    <t>Avantis@123</t>
+  </si>
+  <si>
+    <t>Team@1234</t>
+  </si>
+  <si>
+    <t>mgmt123@regtrack.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1107,12 @@
       <color rgb="FF1F1F1F"/>
       <name val="Google Sans"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1158,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1243,6 +1255,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1716,7 +1729,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1738,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>224</v>
@@ -1749,16 +1762,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2635,7 +2647,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2665,6 +2677,11 @@
       </c>
       <c r="B3" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="60" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3638,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3646,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3671,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3693,23 +3710,24 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>237</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" tooltip="https://login.teamleaseregtech.com/Login.aspx?ReturnUrl=%2f&amp;Session=Expired"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3732,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3740,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3781,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3789,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>209</v>
@@ -3800,7 +3818,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3903,8 +3921,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>234</v>
+      <c r="B3" s="62" t="s">
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -4039,12 +4057,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4053,7 +4070,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4067,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4075,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4083,7 +4100,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4151,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4159,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4167,7 +4184,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4198,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -4213,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4221,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4229,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4271,7 +4288,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B10" r:id="rId5"/>
